--- a/output/Igloolik/k_5/clusters_data.xlsx
+++ b/output/Igloolik/k_5/clusters_data.xlsx
@@ -20,6 +20,408 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
     <t>932</t>
   </si>
   <si>
@@ -38,18 +440,6 @@
     <t>807</t>
   </si>
   <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
     <t>921</t>
   </si>
   <si>
@@ -86,9 +476,6 @@
     <t>691</t>
   </si>
   <si>
-    <t>617</t>
-  </si>
-  <si>
     <t>690</t>
   </si>
   <si>
@@ -101,15 +488,6 @@
     <t>661</t>
   </si>
   <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
     <t>622</t>
   </si>
   <si>
@@ -257,12 +635,6 @@
     <t>926</t>
   </si>
   <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
     <t>803</t>
   </si>
   <si>
@@ -317,6 +689,12 @@
     <t>709</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
     <t>823</t>
   </si>
   <si>
@@ -329,7 +707,7 @@
     <t>790</t>
   </si>
   <si>
-    <t>659</t>
+    <t>404</t>
   </si>
   <si>
     <t>214</t>
@@ -407,6 +785,12 @@
     <t>252</t>
   </si>
   <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
     <t>255</t>
   </si>
   <si>
@@ -416,7 +800,7 @@
     <t>421</t>
   </si>
   <si>
-    <t>257</t>
+    <t>427</t>
   </si>
   <si>
     <t>419</t>
@@ -545,108 +929,6 @@
     <t>184</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
     <t>1013</t>
   </si>
   <si>
@@ -677,12 +959,6 @@
     <t>1006</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
     <t>713</t>
   </si>
   <si>
@@ -810,282 +1086,6 @@
   </si>
   <si>
     <t>1019</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>581</t>
   </si>
 </sst>
 </file>
@@ -1426,18 +1426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DB6"/>
+  <dimension ref="A1:CR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:96">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:96">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1448,28 +1448,28 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -1478,1073 +1478,1073 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:96">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="BH3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="BI3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="BJ3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
+      <c r="BK3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" t="s">
+      <c r="BL3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" t="s">
+      <c r="BM3" t="s">
         <v>111</v>
       </c>
-      <c r="I3" t="s">
+      <c r="BN3" t="s">
         <v>112</v>
       </c>
-      <c r="J3" t="s">
+      <c r="BO3" t="s">
         <v>113</v>
       </c>
-      <c r="K3" t="s">
+      <c r="BP3" t="s">
         <v>114</v>
       </c>
-      <c r="L3" t="s">
+      <c r="BQ3" t="s">
         <v>115</v>
       </c>
-      <c r="M3" t="s">
+      <c r="BR3" t="s">
         <v>116</v>
       </c>
-      <c r="N3" t="s">
+      <c r="BS3" t="s">
         <v>117</v>
       </c>
-      <c r="O3" t="s">
+      <c r="BT3" t="s">
         <v>118</v>
       </c>
-      <c r="P3" t="s">
+      <c r="BU3" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="BV3" t="s">
         <v>120</v>
       </c>
-      <c r="R3" t="s">
+      <c r="BW3" t="s">
         <v>121</v>
       </c>
-      <c r="S3" t="s">
+      <c r="BX3" t="s">
         <v>122</v>
       </c>
-      <c r="T3" t="s">
+      <c r="BY3" t="s">
         <v>123</v>
       </c>
-      <c r="U3" t="s">
+      <c r="BZ3" t="s">
         <v>124</v>
       </c>
-      <c r="V3" t="s">
+      <c r="CA3" t="s">
         <v>125</v>
       </c>
-      <c r="W3" t="s">
+      <c r="CB3" t="s">
         <v>126</v>
       </c>
-      <c r="X3" t="s">
+      <c r="CC3" t="s">
         <v>127</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="CD3" t="s">
         <v>128</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="CE3" t="s">
         <v>129</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="CF3" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="CG3" t="s">
         <v>131</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="CH3" t="s">
         <v>132</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="CI3" t="s">
         <v>133</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="CJ3" t="s">
         <v>134</v>
       </c>
-      <c r="AF3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:96">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U4" t="s">
+        <v>154</v>
+      </c>
+      <c r="V4" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>176</v>
       </c>
-      <c r="C4" t="s">
+      <c r="AR4" t="s">
         <v>177</v>
       </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="AS4" t="s">
         <v>178</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AT4" t="s">
         <v>179</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AU4" t="s">
         <v>180</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AV4" t="s">
         <v>181</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AW4" t="s">
         <v>182</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AX4" t="s">
         <v>183</v>
       </c>
-      <c r="K4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="AY4" t="s">
         <v>184</v>
       </c>
-      <c r="M4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="AZ4" t="s">
         <v>185</v>
       </c>
-      <c r="O4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="BA4" t="s">
         <v>186</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="BB4" t="s">
         <v>187</v>
       </c>
-      <c r="R4" t="s">
+      <c r="BC4" t="s">
         <v>188</v>
       </c>
-      <c r="S4" t="s">
+      <c r="BD4" t="s">
         <v>189</v>
       </c>
-      <c r="T4" t="s">
+      <c r="BE4" t="s">
         <v>190</v>
       </c>
-      <c r="U4" t="s">
+      <c r="BF4" t="s">
         <v>191</v>
       </c>
-      <c r="V4" t="s">
+      <c r="BG4" t="s">
         <v>192</v>
       </c>
-      <c r="W4" t="s">
+      <c r="BH4" t="s">
         <v>193</v>
       </c>
-      <c r="X4" t="s">
+      <c r="BI4" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="BJ4" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="BK4" t="s">
         <v>196</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="BL4" t="s">
         <v>197</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="BM4" t="s">
         <v>198</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="BN4" t="s">
         <v>199</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="BO4" t="s">
         <v>200</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="BP4" t="s">
         <v>201</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="BQ4" t="s">
         <v>202</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="BR4" t="s">
         <v>203</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="BS4" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="BT4" t="s">
         <v>205</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="BU4" t="s">
         <v>206</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="BV4" t="s">
         <v>207</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="BW4" t="s">
         <v>208</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="BX4" t="s">
         <v>209</v>
       </c>
+      <c r="BY4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>216</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>225</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>226</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>227</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="5" spans="1:106">
+    <row r="5" spans="1:96">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="L5" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="N5" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="Q5" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="R5" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="S5" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="T5" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="U5" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="V5" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="W5" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="X5" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="Y5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="Z5" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AA5" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AB5" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AC5" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AD5" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AE5" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AF5" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AG5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AH5" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AI5" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AJ5" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AK5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AL5" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AM5" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AN5" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AO5" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AP5" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AQ5" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AR5" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AS5" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AT5" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AU5" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AV5" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AW5" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AX5" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AY5" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AZ5" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="BA5" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="BB5" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="BC5" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="BD5" t="s">
-        <v>264</v>
+        <v>284</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>286</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>291</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>293</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>294</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>295</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>296</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>297</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>299</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>300</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:106">
+    <row r="6" spans="1:96">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="J6" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="K6" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="L6" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="M6" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="N6" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="O6" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="P6" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="Q6" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="R6" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="S6" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="T6" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="U6" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="V6" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="W6" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="X6" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="Y6" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="Z6" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="AA6" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="AB6" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AC6" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="AD6" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="AE6" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="AF6" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="AG6" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="AH6" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="AI6" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="AJ6" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="AK6" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="AL6" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AM6" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="AN6" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="AO6" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="AP6" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AQ6" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="AR6" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="AS6" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="AT6" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="AU6" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="AV6" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="AW6" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="AX6" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="AY6" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="AZ6" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="BA6" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="BB6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>317</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>318</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>321</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>322</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>323</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>324</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>327</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>328</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>329</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>330</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>331</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>332</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>333</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>334</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>335</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>337</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>339</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>340</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>341</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>342</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>343</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>344</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>345</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>346</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>347</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>348</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>349</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>350</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>351</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>352</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>353</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>354</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>355</v>
-      </c>
-      <c r="CP6" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2555,18 +2555,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2579,11 +2579,8 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2594,10 +2591,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2611,25 +2608,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
         <v>2</v>
       </c>
     </row>
